--- a/Data_frame/balancos_definitivos/NGRD3.xlsx
+++ b/Data_frame/balancos_definitivos/NGRD3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,16 @@
           <t>31/12/2023</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -582,6 +592,12 @@
       <c r="R2" t="n">
         <v>650801.9840000001</v>
       </c>
+      <c r="S2" t="n">
+        <v>648003.008</v>
+      </c>
+      <c r="T2" t="n">
+        <v>646036.992</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +656,12 @@
       <c r="R3" t="n">
         <v>257842</v>
       </c>
+      <c r="S3" t="n">
+        <v>257724.992</v>
+      </c>
+      <c r="T3" t="n">
+        <v>249991.008</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -698,6 +720,12 @@
       <c r="R4" t="n">
         <v>62742</v>
       </c>
+      <c r="S4" t="n">
+        <v>59644</v>
+      </c>
+      <c r="T4" t="n">
+        <v>60363</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -756,6 +784,12 @@
       <c r="R5" t="n">
         <v>114586</v>
       </c>
+      <c r="S5" t="n">
+        <v>109578</v>
+      </c>
+      <c r="T5" t="n">
+        <v>106386</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -814,6 +848,12 @@
       <c r="R6" t="n">
         <v>59407</v>
       </c>
+      <c r="S6" t="n">
+        <v>68538</v>
+      </c>
+      <c r="T6" t="n">
+        <v>67371</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -872,6 +912,12 @@
       <c r="R7" t="n">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -930,6 +976,12 @@
       <c r="R8" t="n">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -988,6 +1040,12 @@
       <c r="R9" t="n">
         <v>15165</v>
       </c>
+      <c r="S9" t="n">
+        <v>15763</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7660</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1046,6 +1104,12 @@
       <c r="R10" t="n">
         <v>5882</v>
       </c>
+      <c r="S10" t="n">
+        <v>4142</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8151</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1104,6 +1168,12 @@
       <c r="R11" t="n">
         <v>60</v>
       </c>
+      <c r="S11" t="n">
+        <v>60</v>
+      </c>
+      <c r="T11" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1162,6 +1232,12 @@
       <c r="R12" t="n">
         <v>6837</v>
       </c>
+      <c r="S12" t="n">
+        <v>6550</v>
+      </c>
+      <c r="T12" t="n">
+        <v>14879</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1220,6 +1296,12 @@
       <c r="R13" t="n">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1278,6 +1360,12 @@
       <c r="R14" t="n">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1336,6 +1424,12 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1394,6 +1488,12 @@
       <c r="R16" t="n">
         <v>50</v>
       </c>
+      <c r="S16" t="n">
+        <v>50</v>
+      </c>
+      <c r="T16" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1452,6 +1552,12 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1510,6 +1616,12 @@
       <c r="R18" t="n">
         <v>0</v>
       </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1568,6 +1680,12 @@
       <c r="R19" t="n">
         <v>6569</v>
       </c>
+      <c r="S19" t="n">
+        <v>6323</v>
+      </c>
+      <c r="T19" t="n">
+        <v>6046</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1626,6 +1744,12 @@
       <c r="R20" t="n">
         <v>218</v>
       </c>
+      <c r="S20" t="n">
+        <v>177</v>
+      </c>
+      <c r="T20" t="n">
+        <v>513</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1684,6 +1808,12 @@
       <c r="R21" t="n">
         <v>0</v>
       </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1742,6 +1872,12 @@
       <c r="R22" t="n">
         <v>0</v>
       </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1800,6 +1936,12 @@
       <c r="R23" t="n">
         <v>16072</v>
       </c>
+      <c r="S23" t="n">
+        <v>14822</v>
+      </c>
+      <c r="T23" t="n">
+        <v>13912</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1858,6 +2000,12 @@
       <c r="R24" t="n">
         <v>370051.008</v>
       </c>
+      <c r="S24" t="n">
+        <v>368905.984</v>
+      </c>
+      <c r="T24" t="n">
+        <v>367255.008</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1916,6 +2064,12 @@
       <c r="R25" t="n">
         <v>0</v>
       </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1974,6 +2128,12 @@
       <c r="R26" t="n">
         <v>650801.9840000001</v>
       </c>
+      <c r="S26" t="n">
+        <v>648003.008</v>
+      </c>
+      <c r="T26" t="n">
+        <v>646036.992</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2032,6 +2192,12 @@
       <c r="R27" t="n">
         <v>76043</v>
       </c>
+      <c r="S27" t="n">
+        <v>99145</v>
+      </c>
+      <c r="T27" t="n">
+        <v>104566</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2090,6 +2256,12 @@
       <c r="R28" t="n">
         <v>18918</v>
       </c>
+      <c r="S28" t="n">
+        <v>21016</v>
+      </c>
+      <c r="T28" t="n">
+        <v>27601</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2148,6 +2320,12 @@
       <c r="R29" t="n">
         <v>22793</v>
       </c>
+      <c r="S29" t="n">
+        <v>22492</v>
+      </c>
+      <c r="T29" t="n">
+        <v>26877</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2206,6 +2384,12 @@
       <c r="R30" t="n">
         <v>9081</v>
       </c>
+      <c r="S30" t="n">
+        <v>7737</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6694</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2264,6 +2448,12 @@
       <c r="R31" t="n">
         <v>8136</v>
       </c>
+      <c r="S31" t="n">
+        <v>7503</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4970</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2322,6 +2512,12 @@
       <c r="R32" t="n">
         <v>0</v>
       </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2380,6 +2576,12 @@
       <c r="R33" t="n">
         <v>0</v>
       </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2438,6 +2640,12 @@
       <c r="R34" t="n">
         <v>17115</v>
       </c>
+      <c r="S34" t="n">
+        <v>40397</v>
+      </c>
+      <c r="T34" t="n">
+        <v>38424</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2496,6 +2704,12 @@
       <c r="R35" t="n">
         <v>0</v>
       </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2554,6 +2768,12 @@
       <c r="R36" t="n">
         <v>0</v>
       </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2612,6 +2832,12 @@
       <c r="R37" t="n">
         <v>124817</v>
       </c>
+      <c r="S37" t="n">
+        <v>100733</v>
+      </c>
+      <c r="T37" t="n">
+        <v>94645</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2670,6 +2896,12 @@
       <c r="R38" t="n">
         <v>13735</v>
       </c>
+      <c r="S38" t="n">
+        <v>13048</v>
+      </c>
+      <c r="T38" t="n">
+        <v>12901</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2728,6 +2960,12 @@
       <c r="R39" t="n">
         <v>0</v>
       </c>
+      <c r="S39" t="n">
+        <v>262</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2786,6 +3024,12 @@
       <c r="R40" t="n">
         <v>37477</v>
       </c>
+      <c r="S40" t="n">
+        <v>15589</v>
+      </c>
+      <c r="T40" t="n">
+        <v>14405</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2844,6 +3088,12 @@
       <c r="R41" t="n">
         <v>71968</v>
       </c>
+      <c r="S41" t="n">
+        <v>70184</v>
+      </c>
+      <c r="T41" t="n">
+        <v>65807</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2902,6 +3152,12 @@
       <c r="R42" t="n">
         <v>0</v>
       </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2960,6 +3216,12 @@
       <c r="R43" t="n">
         <v>1637</v>
       </c>
+      <c r="S43" t="n">
+        <v>1650</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1532</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3018,6 +3280,12 @@
       <c r="R44" t="n">
         <v>0</v>
       </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3076,6 +3344,12 @@
       <c r="R45" t="n">
         <v>0</v>
       </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3134,6 +3408,12 @@
       <c r="R46" t="n">
         <v>0</v>
       </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3192,6 +3472,12 @@
       <c r="R47" t="n">
         <v>449942.016</v>
       </c>
+      <c r="S47" t="n">
+        <v>448124.992</v>
+      </c>
+      <c r="T47" t="n">
+        <v>446825.984</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3250,6 +3536,12 @@
       <c r="R48" t="n">
         <v>440108</v>
       </c>
+      <c r="S48" t="n">
+        <v>440108</v>
+      </c>
+      <c r="T48" t="n">
+        <v>440108</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3308,6 +3600,12 @@
       <c r="R49" t="n">
         <v>-41071</v>
       </c>
+      <c r="S49" t="n">
+        <v>-41180</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-41180</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3366,6 +3664,12 @@
       <c r="R50" t="n">
         <v>0</v>
       </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3424,6 +3728,12 @@
       <c r="R51" t="n">
         <v>50619</v>
       </c>
+      <c r="S51" t="n">
+        <v>51202</v>
+      </c>
+      <c r="T51" t="n">
+        <v>51096</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3482,6 +3792,12 @@
       <c r="R52" t="n">
         <v>0</v>
       </c>
+      <c r="S52" t="n">
+        <v>-3410</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-9024</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3540,6 +3856,12 @@
       <c r="R53" t="n">
         <v>0</v>
       </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3598,6 +3920,12 @@
       <c r="R54" t="n">
         <v>286</v>
       </c>
+      <c r="S54" t="n">
+        <v>1405</v>
+      </c>
+      <c r="T54" t="n">
+        <v>5826</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3656,6 +3984,12 @@
       <c r="R55" t="n">
         <v>0</v>
       </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3712,6 +4046,12 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3738,6 +4078,8 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3762,6 +4104,8 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3818,6 +4162,12 @@
       <c r="R59" t="n">
         <v>67259</v>
       </c>
+      <c r="S59" t="n">
+        <v>67980</v>
+      </c>
+      <c r="T59" t="n">
+        <v>67814</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3874,6 +4224,12 @@
       <c r="R60" t="n">
         <v>-21411</v>
       </c>
+      <c r="S60" t="n">
+        <v>-27221</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-28043</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3930,6 +4286,12 @@
       <c r="R61" t="n">
         <v>45847.992</v>
       </c>
+      <c r="S61" t="n">
+        <v>40759</v>
+      </c>
+      <c r="T61" t="n">
+        <v>39771</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3986,6 +4348,12 @@
       <c r="R62" t="n">
         <v>-10827</v>
       </c>
+      <c r="S62" t="n">
+        <v>-12520</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-12108</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4042,6 +4410,12 @@
       <c r="R63" t="n">
         <v>-32350</v>
       </c>
+      <c r="S63" t="n">
+        <v>-31761</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-34835</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4098,6 +4472,12 @@
       <c r="R64" t="n">
         <v>0</v>
       </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4152,6 +4532,12 @@
         <v>0</v>
       </c>
       <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4210,6 +4596,12 @@
       <c r="R66" t="n">
         <v>13330</v>
       </c>
+      <c r="S66" t="n">
+        <v>-709</v>
+      </c>
+      <c r="T66" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4265,6 +4657,12 @@
       </c>
       <c r="R67" t="n">
         <v>-1633</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4322,6 +4720,12 @@
       <c r="R68" t="n">
         <v>4262</v>
       </c>
+      <c r="S68" t="n">
+        <v>1636</v>
+      </c>
+      <c r="T68" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4378,6 +4782,12 @@
       <c r="R69" t="n">
         <v>6135</v>
       </c>
+      <c r="S69" t="n">
+        <v>4307</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2556</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4433,6 +4843,12 @@
       </c>
       <c r="R70" t="n">
         <v>-1873</v>
+      </c>
+      <c r="S70" t="n">
+        <v>-2671</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-2180</v>
       </c>
     </row>
     <row r="71">
@@ -4458,6 +4874,8 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4482,6 +4900,8 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4506,6 +4926,8 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4562,6 +4984,12 @@
       <c r="R74" t="n">
         <v>18630</v>
       </c>
+      <c r="S74" t="n">
+        <v>-2595</v>
+      </c>
+      <c r="T74" t="n">
+        <v>-6614</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4618,6 +5046,12 @@
       <c r="R75" t="n">
         <v>-471</v>
       </c>
+      <c r="S75" t="n">
+        <v>-958</v>
+      </c>
+      <c r="T75" t="n">
+        <v>-1083</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4673,6 +5107,12 @@
       </c>
       <c r="R76" t="n">
         <v>-14505</v>
+      </c>
+      <c r="S76" t="n">
+        <v>143</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2704</v>
       </c>
     </row>
     <row r="77">
@@ -4698,6 +5138,8 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4722,6 +5164,8 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4777,6 +5221,12 @@
       </c>
       <c r="R79" t="n">
         <v>295</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4833,6 +5283,12 @@
       </c>
       <c r="R80" t="n">
         <v>3949</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-3410</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-4993</v>
       </c>
     </row>
   </sheetData>
